--- a/Excel/DungeonConfig.xlsx
+++ b/Excel/DungeonConfig.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+  <si>
+    <t>c</t>
+  </si>
   <si>
     <t>Id</t>
   </si>
@@ -58,43 +61,73 @@
     <t>嚎哭深渊</t>
   </si>
   <si>
-    <t>map_data_1</t>
+    <t>mapconfig_pvp_004</t>
   </si>
   <si>
     <t>ui_mmap_bowangpo</t>
   </si>
   <si>
-    <t>map_scene_prefab1</t>
+    <t>pvp_004</t>
   </si>
   <si>
     <t>测试场景1</t>
   </si>
   <si>
+    <t>mapconfig_pvp_005</t>
+  </si>
+  <si>
     <t>ui_mmap_changbanpo</t>
   </si>
   <si>
+    <t>pvp_005</t>
+  </si>
+  <si>
     <t>测试场景2</t>
   </si>
   <si>
+    <t>mapconfig_pvp_006</t>
+  </si>
+  <si>
     <t>ui_mmap_chibi</t>
   </si>
   <si>
+    <t>pvp_006</t>
+  </si>
+  <si>
     <t>测试场景3</t>
   </si>
   <si>
+    <t>mapconfig_pvp_007</t>
+  </si>
+  <si>
     <t>ui_mmap_fadongzhuo</t>
   </si>
   <si>
+    <t>pvp_007</t>
+  </si>
+  <si>
     <t>测试场景4</t>
   </si>
   <si>
+    <t>mapconfig_pvp_008</t>
+  </si>
+  <si>
     <t>ui_mmap_fayuanshao</t>
   </si>
   <si>
+    <t>pvp_008</t>
+  </si>
+  <si>
     <t>测试场景5</t>
   </si>
   <si>
+    <t>mapconfig_pvp_009</t>
+  </si>
+  <si>
     <t>ui_mmap_fenluoyang</t>
+  </si>
+  <si>
+    <t>pvp_009</t>
   </si>
 </sst>
 </file>
@@ -102,10 +135,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -130,103 +163,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,6 +177,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -257,14 +261,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -274,7 +270,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,187 +328,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,15 +519,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,6 +537,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -524,6 +559,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,191 +614,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,10 +1130,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:H11"/>
+  <dimension ref="C2:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -1109,70 +1142,78 @@
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.9333333333333" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="20.625" style="3" customWidth="1"/>
     <col min="8" max="8" width="23" style="3" customWidth="1"/>
     <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
+    <row r="2" spans="7:8">
+      <c r="G2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" spans="3:8">
       <c r="C3" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:8">
       <c r="C4" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="3:8">
       <c r="C5" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="3:8">
@@ -1180,94 +1221,119 @@
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="5">
         <v>2</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="3:7">
+    <row r="7" spans="3:8">
       <c r="C7" s="1">
         <v>2</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:7">
+    <row r="8" spans="3:8">
       <c r="C8" s="1">
         <v>3</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="G8" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="3:7">
+    <row r="9" spans="3:8">
       <c r="C9" s="1">
         <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="G9" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
-    <row r="10" spans="3:7">
+    <row r="10" spans="3:8">
       <c r="C10" s="1">
         <v>5</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2">
         <v>1</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>32</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:7">
+    <row r="11" spans="3:8">
       <c r="C11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>35</v>
+      </c>
       <c r="G11" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
